--- a/downloaded_files/CMPS103_Tutorial-35659.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35659.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,39 +33,12 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أندرو وليد جرجس كيرلس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Walid Girgis</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240191</x:t>
   </x:si>
   <x:si>
     <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
-    <x:t>1240005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد خالد سعد محمود سلام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed khaled saad mahmoud</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود فريد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mahmoud Fared Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230294</x:t>
   </x:si>
   <x:si>
@@ -75,15 +48,6 @@
     <x:t>ANTON</x:t>
   </x:si>
   <x:si>
-    <x:t>1210132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيشوى كمال برسوم كمال ابو غالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bishoy Kamal Barsoum Kamal</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
@@ -135,15 +99,6 @@
     <x:t>Ali Mahmoud Ahmed Ibrahim</x:t>
   </x:si>
   <x:si>
-    <x:t>1240101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ehab</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220264</x:t>
   </x:si>
   <x:si>
@@ -198,6 +153,15 @@
     <x:t>Mohamed Tarek Mohamed Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240185</x:t>
   </x:si>
   <x:si>
@@ -214,15 +178,6 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> MARIAM EHAB NOBY SAYED ELSAWY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210083</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى هانى عبد الفتاح محمود العطار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Hany Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1240388</x:t>
@@ -404,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -791,11 +746,9 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45907.421215081</x:v>
+        <x:v>45927.5066766551</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -818,14 +771,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="D3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s"/>
       <x:c r="E3" s="3">
-        <x:v>45909.8257649306</x:v>
+        <x:v>45907.4200304745</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,11 +808,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45907.6646548264</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -880,16 +833,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4188322917</x:v>
+        <x:v>45907.4197134607</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -912,16 +865,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4200304745</x:v>
+        <x:v>45912.2779576042</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -944,16 +897,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6656665856</x:v>
+        <x:v>45907.4193797106</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -976,14 +929,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.6646548264</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1015,7 +970,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4197134607</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1047,7 +1002,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.2779576042</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1079,7 +1034,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4193797106</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1111,7 +1066,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45912.2783285532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1143,7 +1098,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1175,7 +1130,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6413434028</x:v>
+        <x:v>45927.4940615741</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1207,7 +1162,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1239,7 +1194,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1271,7 +1226,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1303,7 +1258,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1335,7 +1290,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1367,7 +1322,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1395,11 +1350,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1422,16 +1375,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1454,16 +1407,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6647589468</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1486,16 +1439,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1518,16 +1471,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1550,14 +1501,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s"/>
       <x:c r="E26" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1574,164 +1527,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.6796116898</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45912.2767853356</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45912.2732961458</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s"/>
-      <x:c r="E30" s="3">
-        <x:v>45912.6027669792</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35659.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35659.xlsx
@@ -63,6 +63,15 @@
     <x:t>Zeinab Moawad mohamed anwar ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240320</x:t>
   </x:si>
   <x:si>
@@ -133,15 +142,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ibrahim Elshenawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210159</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد صبرى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Sabry Hassan Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230105</x:t>
@@ -874,7 +874,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.2779576042</x:v>
+        <x:v>45928.476215162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -906,7 +906,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4193797106</x:v>
+        <x:v>45912.2779576042</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -938,7 +938,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45907.4193797106</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -970,7 +970,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1002,7 +1002,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1034,7 +1034,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1066,7 +1066,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1098,7 +1098,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45912.2783285532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1130,7 +1130,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4940615741</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>

--- a/downloaded_files/CMPS103_Tutorial-35659.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35659.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -106,15 +106,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Ahmed Ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220187</x:t>
@@ -359,7 +350,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +650,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -748,7 +739,7 @@
       </x:c>
       <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45927.5066766551</x:v>
+        <x:v>45929.3510032407</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -1034,7 +1025,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1066,7 +1057,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45912.2783285532</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1098,7 +1089,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1130,7 +1121,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1162,7 +1153,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1194,7 +1185,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4166222569</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1226,7 +1217,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1258,7 +1249,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1290,7 +1281,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1318,11 +1309,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1345,14 +1334,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1384,7 +1375,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6796116898</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1407,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1444,11 +1435,9 @@
       <x:c r="C24" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1471,14 +1460,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1495,38 +1486,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35659.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35659.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -61,15 +61,6 @@
   </x:si>
   <x:si>
     <x:t>Zeinab Moawad mohamed anwar ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -350,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -865,7 +856,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.476215162</x:v>
+        <x:v>45912.2779576042</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -897,7 +888,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45912.2779576042</x:v>
+        <x:v>45907.4193797106</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -929,7 +920,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4193797106</x:v>
+        <x:v>45912.2750134606</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -961,7 +952,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.2750134606</x:v>
+        <x:v>45912.2735715625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -993,7 +984,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.2735715625</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1025,7 +1016,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45912.2783285532</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1057,7 +1048,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.2783285532</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1089,7 +1080,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1121,7 +1112,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45927.4166222569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1153,7 +1144,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4166222569</x:v>
+        <x:v>45912.2971767014</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1185,7 +1176,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.2971767014</x:v>
+        <x:v>45907.4219376505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1217,7 +1208,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4219376505</x:v>
+        <x:v>45907.6657957523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1249,7 +1240,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6657957523</x:v>
+        <x:v>45907.420059456</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1277,11 +1268,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45907.420059456</x:v>
+        <x:v>45912.6012425926</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1304,14 +1293,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45912.6012425926</x:v>
+        <x:v>45907.6796116898</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1334,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6796116898</x:v>
+        <x:v>45912.2767853356</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1366,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.2767853356</x:v>
+        <x:v>45912.2732961458</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1403,11 +1394,9 @@
       <x:c r="C23" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45912.2732961458</x:v>
+        <x:v>45912.6027669792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1430,14 +1419,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45912.6027669792</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1454,38 +1445,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS103_Tutorial-35659.xlsx
+++ b/downloaded_files/CMPS103_Tutorial-35659.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,7 +51,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1220241</x:t>
@@ -790,7 +793,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="E4" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -815,13 +820,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45907.4197134607</x:v>
@@ -847,13 +852,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45912.2779576042</x:v>
@@ -879,13 +884,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45907.4193797106</x:v>
@@ -911,13 +916,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45912.2750134606</x:v>
@@ -943,13 +948,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45912.2735715625</x:v>
@@ -975,13 +980,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45907.4146219907</x:v>
@@ -1007,13 +1012,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45912.2783285532</x:v>
@@ -1039,13 +1044,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45907.6655096875</x:v>
@@ -1071,13 +1076,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.6646984606</x:v>
@@ -1103,13 +1108,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45927.4166222569</x:v>
@@ -1135,13 +1140,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45912.2971767014</x:v>
@@ -1167,13 +1172,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.4219376505</x:v>
@@ -1199,13 +1204,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45907.6657957523</x:v>
@@ -1231,13 +1236,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.420059456</x:v>
@@ -1263,10 +1268,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
@@ -1293,13 +1298,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.6796116898</x:v>
@@ -1325,13 +1330,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45912.2767853356</x:v>
@@ -1357,13 +1362,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45912.2732961458</x:v>
@@ -1389,10 +1394,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
@@ -1419,13 +1424,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6665474537</x:v>
